--- a/Income/PINS_inc.xlsx
+++ b/Income/PINS_inc.xlsx
@@ -862,16 +862,16 @@
         <v>0.0328</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-0.0331</v>
+        <v>-0.0394</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.0308</v>
+        <v>0.0237</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.008</v>
+        <v>0.0008</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>-0.0213</v>
+        <v>-0.029</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>-0.0519</v>
@@ -1238,16 +1238,16 @@
         <v>0.0431</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>-0.0134</v>
+        <v>-0.0197</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.0579</v>
+        <v>0.0508</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.0386</v>
+        <v>0.0314</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.0082</v>
+        <v>0.0006</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>-0.0273</v>
